--- a/biology/Médecine/Atrabile/Atrabile.xlsx
+++ b/biology/Médecine/Atrabile/Atrabile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'atrabile, encore appelée mélancolie ou bile noire, est un liquide froid et sec.
 Ce fluide considéré dans la médecine antique et sa théorie des humeurs comme étant la cause de la mélancolie et de l'hypocondrie est hypothétique et n'a pas d'existence avérée en médecine moderne.
@@ -516,7 +528,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atrabile vient du latin atra bilis qui signifie bile noire.
 </t>
